--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -244,7 +244,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Competence.competence</t>
+    <t>Competence.typeSavoirFaire</t>
   </si>
   <si>
     <t>1</t>
@@ -254,10 +254,44 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+  </si>
+  <si>
+    <t>SavoirFaire.typeSavoirFaire</t>
+  </si>
+  <si>
+    <t>Competence.dateReconnaissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateReconnaissance</t>
+  </si>
+  <si>
+    <t>Competence.dateAbandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>Competence.competence</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Compétence acquise par le professionnel.</t>
-  </si>
-  <si>
-    <t>preferred</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competence-vs</t>
@@ -563,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -572,8 +606,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.09375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -597,13 +631,13 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.15625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="21.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="26.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -902,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>71</v>
@@ -914,6 +948,304 @@
         <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Extrait du rapport de l'ONDPS sur la médecine générale (Tome 1 2006-2007): "La compétence était un titre délivré par l’ordre national des médecins en application du précédent règlement de qualification (Article 3 de l'arrêté du 4 septembre 1970), aux praticiens dits «ancien régime» ayant débuté leurs études médicales avant la réforme de 1982. Ce titre était accordé après avis d’une commission ordinale spécifique. Les compétences, dont la liste était fixée par arrêté, portaient soit sur des disciplines ne correspondant pas à des spécialités qualifiantes (médecine légale ou allergologie par exemple), soit sur des spécialités médicales, le praticien compétent ne pouvant l’exercer que dans le cadre de sa spécialité d’inscription à l’ordre. Les compétences ne peuvent plus être délivrées aux médecins issus du nouveau régime, c’est-à-dire ayant débuté leurs études à compter de l’année universitaire 1984-1985. Toutefois, pour ceux de l’ancien régime et à titre transitoire, le dépôt d’une demande de qualification était possible jusqu’au 31 décembre 2004 et ces praticiens peuvent s’en prévaloir jusqu’à la fin leur période d’activité professionnelle.Une compétence est un type de savoir-faire. La classe Competence est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Extrait du rapport de l'ONDPS sur la médecine générale (Tome 1 2006-2007): "La compétence était un titre délivré par l’ordre national des médecins en application du précédent règlement de qualification (Article 3 de l'arrêté du 4 septembre 1970), aux praticiens dits «ancien régime» ayant débuté leurs études médicales avant la réforme de 1982. Ce titre était accordé après avis d’une commission ordinale spécifique. Les compétences, dont la liste était fixée par arrêté, portaient soit sur des disciplines ne correspondant pas à des spécialités qualifiantes (médecine légale ou allergologie par exemple), soit sur des spécialités médicales, le praticien compétent ne pouvant l’exercer que dans le cadre de sa spécialité d’inscription à l’ordre. Les compétences ne peuvent plus être délivrées aux médecins issus du nouveau régime, c’est-à-dire ayant débuté leurs études à compter de l’année universitaire 1984-1985. Toutefois, pour ceux de l’ancien régime et à titre transitoire, le dépôt d’une demande de qualification était possible jusqu’au 31 décembre 2004 et ces praticiens peuvent s’en prévaloir jusqu’à la fin leur période d’activité professionnelle.Une compétence est un type de savoir-faire. La classe Competence est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+    <t>Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -273,7 +273,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+    <t>Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
   </si>
   <si>
     <t>SavoirFaire.dateReconnaissance</t>
@@ -282,7 +282,7 @@
     <t>Competence.dateAbandon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+    <t>Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
@@ -291,7 +291,7 @@
     <t>Competence.competence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Compétence acquise par le professionnel.</t>
+    <t>Compétence acquise par le professionnel.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competence-vs</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire?vs</t>
   </si>
   <si>
     <t>SavoirFaire.typeSavoirFaire</t>
@@ -631,7 +631,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,6 +286,19 @@
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>Competence.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.exerciceProfessionnel</t>
   </si>
   <si>
     <t>Competence.competence</t>
@@ -597,7 +610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -606,8 +619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.51171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.51171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -616,7 +629,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -637,7 +650,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="26.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="27.3984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1164,7 +1177,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1179,13 +1192,13 @@
         <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1212,11 +1225,13 @@
         <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>70</v>
@@ -1234,10 +1249,10 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1246,6 +1261,104 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Extrait du rapport de l'ONDPS sur la médecine générale (Tome 1 2006-2007): "La compétence était un titre délivré par l’ordre national des médecins en application du précédent règlement de qualification (Article 3 de l'arrêté du 4 septembre 1970), aux praticiens dits «ancien régime» ayant débuté leurs études médicales avant la réforme de 1982. Ce titre était accordé après avis d’une commission ordinale spécifique. Les compétences, dont la liste était fixée par arrêté, portaient soit sur des disciplines ne correspondant pas à des spécialités qualifiantes (médecine légale ou allergologie par exemple), soit sur des spécialités médicales, le praticien compétent ne pouvant l’exercer que dans le cadre de sa spécialité d’inscription à l’ordre. Les compétences ne peuvent plus être délivrées aux médecins issus du nouveau régime, c’est-à-dire ayant débuté leurs études à compter de l’année universitaire 1984-1985. Toutefois, pour ceux de l’ancien régime et à titre transitoire, le dépôt d’une demande de qualification était possible jusqu’au 31 décembre 2004 et ces praticiens peuvent s’en prévaloir jusqu’à la fin leur période d’activité professionnelle.Une compétence est un type de savoir-faire. La classe Competence est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Extrait du rapport de l'ONDPS sur la médecine générale (Tome 1 2006-2007): "La compétence était un titre délivré par l’ordre national des médecins en application du précédent règlement de qualification (Article 3 de l'arrêté du 4 septembre 1970), aux praticiens dits «ancien régime» ayant débuté leurs études médicales avant la réforme de 1982. Ce titre était accordé après avis d’une commission ordinale spécifique. Les compétences, dont la liste était fixée par arrêté, portaient soit sur des disciplines ne correspondant pas à des spécialités qualifiantes (médecine légale ou allergologie par exemple), soit sur des spécialités médicales, le praticien compétent ne pouvant l’exercer que dans le cadre de sa spécialité d’inscription à l’ordre. Les compétences ne peuvent plus être délivrées aux médecins issus du nouveau régime, c’est-à-dire ayant débuté leurs études à compter de l’année universitaire 1984-1985. Toutefois, pour ceux de l’ancien régime et à titre transitoire, le dépôt d’une demande de qualification était possible jusqu’au 31 décembre 2004 et ces praticiens peuvent s’en prévaloir jusqu’à la fin leur période d’activité professionnelle.Une compétence est un type de savoir-faire. La classe Competence est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -541,39 +541,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -581,26 +583,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -658,112 +660,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -775,95 +777,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -875,23 +877,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -905,26 +907,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -934,34 +936,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -973,23 +975,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>84</v>
@@ -1003,65 +1005,65 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1073,23 +1075,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>84</v>
@@ -1103,65 +1105,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1173,7 +1175,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1183,13 +1185,13 @@
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>91</v>
@@ -1203,50 +1205,50 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>93</v>
@@ -1258,10 +1260,10 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1273,23 +1275,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1303,26 +1305,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1332,34 +1334,34 @@
         <v>96</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-Competence.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Competence.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Competence</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Competence</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -291,7 +291,7 @@
     <t>Competence.exerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
     <t>Compétence acquise par le professionnel.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competence-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/competence-vs</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
